--- a/Web Sc/CSGOstash/Try2/Norse TRadup.xlsx
+++ b/Web Sc/CSGOstash/Try2/Norse TRadup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwden\Documents\GitHub\The-Music-of-Primes\Web Sc\CSGOstash\Try2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1DAA63-F2FF-4110-8066-62EBD7BDF750}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D787A88-D925-4CCB-A688-E83C513C5943}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="67">
   <si>
     <t>Name</t>
   </si>
@@ -211,12 +211,6 @@
     <t>Pyre</t>
   </si>
   <si>
-    <t>Ash Wood</t>
-  </si>
-  <si>
-    <t>Urban DDPAT</t>
-  </si>
-  <si>
     <t>Left</t>
   </si>
   <si>
@@ -235,13 +229,7 @@
     <t>Candy</t>
   </si>
   <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Carbon</t>
-  </si>
-  <si>
-    <t>M$</t>
+    <t xml:space="preserve">wr </t>
   </si>
 </sst>
 </file>
@@ -806,7 +794,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="11"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="6" applyBorder="1"/>
@@ -822,13 +810,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="6" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2044,7 +2025,7 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2103,71 +2084,35 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="10">
-        <v>0.83</v>
-      </c>
-      <c r="C3" s="11">
-        <v>0.16885852813721</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0</v>
-      </c>
-      <c r="G3" s="11">
-        <v>3.4727000000000001E-2</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="K3" s="11">
-        <v>0.18872316181660001</v>
-      </c>
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="13">
-        <v>0</v>
-      </c>
-      <c r="C4" s="14">
-        <v>0.1804</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="13">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G4" s="14">
-        <v>9.6669517457490001E-2</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="K4" s="11">
-        <v>0.18184469640254999</v>
-      </c>
-      <c r="M4">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="11"/>
+      <c r="M4" t="e">
         <f>AVERAGE(K3:K8,G3:G4,C3:C4)</f>
-        <v>0.195562577375365</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N4" t="s">
         <v>52</v>
       </c>
       <c r="P4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q4">
         <f>'The+Norse+Collection_guns'!H3</f>
@@ -2175,24 +2120,18 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="11"/>
+      <c r="M5">
+        <f>(10*$Q$4-SUM(K3:K8,G3:G4,C3:C4))/(10-COUNTA(C3:C4,G3:G4,K3:K8))</f>
+        <v>0.21428571428571402</v>
+      </c>
+      <c r="N5" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="K5" s="11">
-        <v>0.18174371123314001</v>
-      </c>
-      <c r="M5" t="e">
-        <f>(10*$Q$4-SUM(K3:K8,G3:G4,C3:C4))/(10-COUNTA(C3:C4,G3:G4,K3:K8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N5" t="s">
-        <v>62</v>
-      </c>
       <c r="P5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q5">
         <f>'The+Norse+Collection_guns'!J13</f>
@@ -2200,51 +2139,33 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I6" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J6" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="K6" s="11">
-        <v>0.28669351339339999</v>
-      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="11"/>
       <c r="M6">
         <f>SUM(J3:J8,F3:F4,B3:B4)</f>
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="N6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I7" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="K7" s="11">
-        <v>0.30832552909851002</v>
-      </c>
-      <c r="M7" s="4">
+      <c r="I7" s="9"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
+      <c r="M7" s="4" t="e">
         <f>$Q$5/M6-1</f>
-        <v>0.94329388560157801</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I8" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" s="13">
-        <v>0.12</v>
-      </c>
-      <c r="K8" s="14">
-        <v>0.32764011621474998</v>
-      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="14"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -2278,136 +2199,112 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B11" s="10">
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
       <c r="C11" s="11">
-        <v>0.15303678810596</v>
+        <v>0.27885177731513999</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F11" s="10">
         <v>0.14000000000000001</v>
       </c>
       <c r="G11" s="11">
-        <v>8.6510613560680003E-2</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11" s="17">
+        <v>7.8331142663960004E-2</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="10">
         <v>0.12</v>
       </c>
-      <c r="K11" s="18">
-        <v>0.15331305563450001</v>
-      </c>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B12" s="13">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="C12" s="14">
-        <v>0.18074733018875</v>
+        <v>0.18087358772754999</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F12" s="13">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G12" s="14">
-        <v>7.4150793254379996E-2</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="J12" s="17">
+        <v>8.1864476203919997E-2</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="10">
         <v>0.12</v>
       </c>
-      <c r="K12" s="18">
-        <v>0.35838782787322998</v>
-      </c>
+      <c r="K12" s="11"/>
       <c r="M12">
         <f>AVERAGE(K11:K16,G11:G12,C11:C12)</f>
-        <v>0.20805569663643797</v>
+        <v>0.15498024597764251</v>
       </c>
       <c r="N12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I13" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="J13" s="17">
+      <c r="I13" s="9"/>
+      <c r="J13" s="10">
         <v>0.12</v>
       </c>
-      <c r="K13" s="18">
-        <v>0.36017635464668002</v>
-      </c>
-      <c r="M13" t="e">
+      <c r="K13" s="11"/>
+      <c r="M13">
         <f>(10*$Q$4-SUM(K11:K16,G11:G12,C11:C12))/(10-COUNTA(C11:C12,G11:G12,K11:K16))</f>
-        <v>#DIV/0!</v>
+        <v>0.25382269315776168</v>
       </c>
       <c r="N13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q13">
         <v>2.46</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I14" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="J14" s="17">
+      <c r="I14" s="9"/>
+      <c r="J14" s="10">
         <v>0.12</v>
       </c>
-      <c r="K14" s="18">
-        <v>0.26027324795723</v>
-      </c>
+      <c r="K14" s="11"/>
       <c r="M14">
         <f>SUM(J11:J16,F11:F12,B11:B12)</f>
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="N14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I15" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="J15" s="17">
+      <c r="I15" s="9"/>
+      <c r="J15" s="10">
         <v>0.12</v>
       </c>
-      <c r="K15" s="18">
-        <v>0.29595616459846003</v>
-      </c>
+      <c r="K15" s="11"/>
       <c r="M15" s="4">
         <f>$Q$5/M14-1</f>
-        <v>0.20741421568627438</v>
+        <v>0.25349872773536886</v>
       </c>
       <c r="N15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I16" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="J16" s="20">
-        <v>0.13</v>
-      </c>
-      <c r="K16" s="21">
-        <v>0.15800479054451</v>
-      </c>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13">
+        <v>0.12</v>
+      </c>
+      <c r="K16" s="14"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -2441,143 +2338,123 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B19" s="10">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="C19" s="11">
-        <v>0.19955344498158001</v>
+        <v>0.16919999999999999</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F19" s="10">
         <v>0.14000000000000001</v>
       </c>
       <c r="G19" s="11">
-        <v>9.4903513789179994E-2</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="J19" s="17">
-        <v>0.13</v>
-      </c>
-      <c r="K19" s="18">
-        <v>0.15742428600788</v>
-      </c>
+        <v>8.2019522786139998E-2</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="K19" s="11"/>
     </row>
     <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B20" s="13">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="C20" s="14">
-        <v>0.16767585277557001</v>
+        <v>0.21566970646381001</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F20" s="13">
         <v>0.14000000000000001</v>
       </c>
       <c r="G20" s="14">
-        <v>9.9863775074479993E-2</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J20" s="17">
-        <v>0.13</v>
-      </c>
-      <c r="K20" s="18">
-        <v>0.15362955629826</v>
-      </c>
+        <v>8.2857877016070003E-2</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="K20" s="11"/>
       <c r="M20">
         <f>AVERAGE(K19:K24,G19:G20,C19:C20)</f>
-        <v>0.182986725121737</v>
+        <v>0.13743677656650499</v>
       </c>
       <c r="N20" t="s">
         <v>52</v>
       </c>
       <c r="S20">
-        <f>SUM(M6,M14,M22,M30)</f>
-        <v>9.82</v>
+        <f>2.7*6</f>
+        <v>16.200000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I21" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J21" s="17">
+      <c r="I21" s="9"/>
+      <c r="J21" s="10">
         <v>0.12</v>
       </c>
-      <c r="K21" s="18">
-        <v>0.15385875105857999</v>
-      </c>
-      <c r="M21" t="e">
+      <c r="K21" s="11"/>
+      <c r="M21">
         <f>(10*$Q$4-SUM(K19:K24,G19:G20,C19:C20))/(10-COUNTA(C19:C20,G19:G20,K19:K24))</f>
-        <v>#DIV/0!</v>
+        <v>0.26551833943185338</v>
       </c>
       <c r="N21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="S21">
-        <f>0.7*3+7.5</f>
-        <v>9.6</v>
+        <f>0.7*4+7.5+7</f>
+        <v>17.3</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I22" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="J22" s="17">
+      <c r="I22" s="9"/>
+      <c r="J22" s="10">
         <v>0.12</v>
       </c>
-      <c r="K22" s="18">
-        <v>0.28416875004768</v>
-      </c>
+      <c r="K22" s="11"/>
       <c r="M22">
         <f>SUM(J19:J24,F19:F20,B19:B20)</f>
-        <v>2.7</v>
+        <v>2.58</v>
       </c>
       <c r="N22" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I23" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="J23" s="17">
+      <c r="I23" s="9"/>
+      <c r="J23" s="10">
         <v>0.12</v>
       </c>
-      <c r="K23" s="18">
-        <v>0.18921107053757</v>
-      </c>
+      <c r="K23" s="11"/>
       <c r="M23" s="4">
         <f>$Q$5/M22-1</f>
-        <v>0.2163580246913579</v>
+        <v>0.27293281653746759</v>
       </c>
       <c r="N23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="12" t="s">
-        <v>61</v>
-      </c>
+      <c r="I24" s="12"/>
       <c r="J24" s="13">
         <v>0.12</v>
       </c>
-      <c r="K24" s="14">
-        <v>0.32957825064659002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="K24" s="14"/>
+    </row>
+    <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q25" t="s">
+        <v>66</v>
+      </c>
+    </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>0</v>
@@ -2609,135 +2486,112 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B27" s="10">
-        <v>0.84</v>
+        <v>0.78</v>
       </c>
       <c r="C27" s="11">
-        <v>0.17885667085647999</v>
+        <v>0.19432558119297</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F27" s="10">
         <v>0.15</v>
       </c>
       <c r="G27" s="11">
-        <v>7.4894465506080005E-2</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J27" s="15">
+        <v>8.405788242817E-2</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="10">
         <v>0.12</v>
       </c>
-      <c r="K27" s="11">
-        <v>0.15748544037341999</v>
-      </c>
+      <c r="K27" s="11"/>
     </row>
     <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B28" s="13">
-        <v>0.84</v>
+        <v>0.78</v>
       </c>
       <c r="C28" s="14">
-        <v>0.26791998744010997</v>
+        <v>0.21638807654381001</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F28" s="13">
         <v>0.15</v>
       </c>
       <c r="G28" s="14">
-        <v>7.2725586593149996E-2</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="J28" s="15">
-        <v>0.13</v>
-      </c>
-      <c r="K28" s="11">
-        <v>0.15020456910133001</v>
-      </c>
+        <v>8.4159120917320002E-2</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="K28" s="11"/>
       <c r="M28">
         <f>AVERAGE(K27:K32,G27:G28,C27:C28)</f>
-        <v>0.19230633229017299</v>
+        <v>0.1447326652705675</v>
       </c>
       <c r="N28" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I29" s="9" t="s">
+      <c r="I29" s="9"/>
+      <c r="J29" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="K29" s="11"/>
+      <c r="M29">
+        <f>(10*$Q$4-SUM(K27:K32,G27:G28,C27:C28))/(10-COUNTA(C27:C28,G27:G28,K27:K32))</f>
+        <v>0.26065441362914504</v>
+      </c>
+      <c r="N29" t="s">
         <v>60</v>
       </c>
-      <c r="J29" s="15">
-        <v>0.12</v>
-      </c>
-      <c r="K29" s="11">
-        <v>0.18930819630623</v>
-      </c>
-      <c r="M29" t="e">
-        <f>(10*$Q$4-SUM(K27:K32,G27:G28,C27:C28))/(10-COUNTA(C27:C28,G27:G28,K27:K32))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N29" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I30" s="9" t="s">
-        <v>61</v>
-      </c>
+      <c r="I30" s="9"/>
       <c r="J30" s="10">
         <v>0.12</v>
       </c>
-      <c r="K30" s="11">
-        <v>0.20441558957100001</v>
-      </c>
+      <c r="K30" s="11"/>
       <c r="M30">
         <f>SUM(J27:J32,F27:F28,B27:B28)</f>
-        <v>2.71</v>
+        <v>2.58</v>
       </c>
       <c r="N30" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I31" s="9" t="s">
-        <v>61</v>
-      </c>
+      <c r="I31" s="9"/>
       <c r="J31" s="10">
         <v>0.12</v>
       </c>
-      <c r="K31" s="11">
-        <v>0.31588965654373002</v>
-      </c>
+      <c r="K31" s="11"/>
       <c r="M31" s="4">
         <f>$Q$5/M30-1</f>
-        <v>0.21186961869618703</v>
+        <v>0.27293281653746759</v>
       </c>
       <c r="N31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I32" s="12" t="s">
-        <v>61</v>
-      </c>
+      <c r="I32" s="12"/>
       <c r="J32" s="13">
         <v>0.12</v>
       </c>
-      <c r="K32" s="14">
-        <v>0.31136316061019997</v>
-      </c>
+      <c r="K32" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>